--- a/data/raw/varnames.xlsx
+++ b/data/raw/varnames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickgirdwood/r/traildata/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDF10BE-8546-8645-8D1D-7E23B00CFEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D62B9E3-DF19-7F49-A7BA-010B1BD74883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="9" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
+    <workbookView xWindow="29720" yWindow="500" windowWidth="33200" windowHeight="19560" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
   </bookViews>
   <sheets>
     <sheet name="koos" sheetId="1" r:id="rId1"/>
@@ -295,9 +295,6 @@
     <t>koos_A5</t>
   </si>
   <si>
-    <t>koos_A6</t>
-  </si>
-  <si>
     <t>koos_A7</t>
   </si>
   <si>
@@ -2258,9 +2255,6 @@
     <t>l_olr</t>
   </si>
   <si>
-    <t>r_oilr</t>
-  </si>
-  <si>
     <t>l_olr_errors</t>
   </si>
   <si>
@@ -2354,9 +2348,6 @@
     <t>waist</t>
   </si>
   <si>
-    <t>kneeext_romdifference</t>
-  </si>
-  <si>
     <t>l_vhop_pain_pre</t>
   </si>
   <si>
@@ -2451,6 +2442,15 @@
   </si>
   <si>
     <t>r_fp_difficulty</t>
+  </si>
+  <si>
+    <t>kneeext_difference</t>
+  </si>
+  <si>
+    <t>r_olr</t>
+  </si>
+  <si>
+    <t>koos_A17</t>
   </si>
 </sst>
 </file>
@@ -2814,18 +2814,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5319468-0651-CB48-84DD-4DB55BDF580F}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2833,7 +2836,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2841,7 +2844,7 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2849,7 +2852,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2857,7 +2860,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2865,7 +2868,7 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2873,7 +2876,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2881,7 +2884,7 @@
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2889,7 +2892,7 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2897,7 +2900,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2905,7 +2908,7 @@
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2913,7 +2916,7 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2921,7 +2924,7 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3193,7 +3196,7 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>798</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3201,7 +3204,7 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3209,7 +3212,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3217,7 +3220,7 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3225,7 +3228,7 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -3233,7 +3236,7 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3241,7 +3244,7 @@
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3249,7 +3252,7 @@
         <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3257,7 +3260,7 @@
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3265,7 +3268,7 @@
         <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -3273,7 +3276,7 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -3281,7 +3284,7 @@
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -3289,7 +3292,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -3297,7 +3300,7 @@
         <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3310,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE58B0A-C65C-F34C-A2D4-01F7C192B455}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3321,1210 +3324,1210 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B31" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B34" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B35" t="s">
-        <v>766</v>
+        <v>796</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B37" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B39" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B40" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B41" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B42" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B43" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B44" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B45" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B46" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B47" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B48" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B49" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B50" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B51" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B52" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B53" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B54" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B55" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B56" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B57" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B58" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B59" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B60" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B61" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B62" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B63" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B64" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B65" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B66" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B67" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B68" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B70" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B71" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B72" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B73" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B74" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B75" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B76" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B77" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B78" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B79" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B80" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B81" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B82" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B83" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B84" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B85" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B86" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B87" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B88" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B89" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B90" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B91" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B92" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B93" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B94" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B96" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B97" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B98" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B99" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B100" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B101" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B102" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B103" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B104" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B105" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B106" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B107" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B108" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B109" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B110" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B111" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B112" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B113" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B114" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B115" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B116" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B117" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B118" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B119" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B120" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B121" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B122" t="s">
-        <v>734</v>
+        <v>797</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B123" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B124" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B125" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B126" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B127" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B128" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B129" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B130" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B131" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B132" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B133" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B134" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B135" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B136" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B137" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B138" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B139" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B140" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B141" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B142" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B143" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B144" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B145" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B146" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B147" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B148" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B149" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B150" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B151" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -4544,74 +4547,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4632,146 +4635,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4792,154 +4795,154 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4960,170 +4963,170 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5144,26 +5147,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5183,106 +5186,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5296,616 +5299,616 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B61" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B71" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B73" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B75" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -5918,394 +5921,394 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44242BA3-67F1-1240-9734-7F51170FA6B6}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/varnames.xlsx
+++ b/data/raw/varnames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickgirdwood/r/traildata/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D62B9E3-DF19-7F49-A7BA-010B1BD74883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2987430-ECA2-8945-8E99-8DC2E1BB3ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29720" yWindow="500" windowWidth="33200" windowHeight="19560" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
   </bookViews>
   <sheets>
     <sheet name="koos" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="kses" sheetId="5" r:id="rId5"/>
     <sheet name="pass" sheetId="6" r:id="rId6"/>
     <sheet name="visa" sheetId="7" r:id="rId7"/>
-    <sheet name="trailbaseline" sheetId="8" r:id="rId8"/>
-    <sheet name="phonescreening" sheetId="9" r:id="rId9"/>
+    <sheet name="baselineq" sheetId="8" r:id="rId8"/>
+    <sheet name="phonescreen" sheetId="9" r:id="rId9"/>
     <sheet name="lab" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="800">
   <si>
     <t>How often is your knee painful?</t>
   </si>
@@ -976,9 +976,6 @@
     <t>Running Knee Pain</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Left Knee Swelling</t>
   </si>
   <si>
@@ -1264,9 +1261,6 @@
     <t>women_cycle_training</t>
   </si>
   <si>
-    <t>women_cycle_training_change</t>
-  </si>
-  <si>
     <t>women_contraception</t>
   </si>
   <si>
@@ -1289,12 +1283,6 @@
   </si>
   <si>
     <t>shoe_factors</t>
-  </si>
-  <si>
-    <t>running_supports</t>
-  </si>
-  <si>
-    <t>running_watchfreq</t>
   </si>
   <si>
     <t>indigenous</t>
@@ -2451,6 +2439,21 @@
   </si>
   <si>
     <t>koos_A17</t>
+  </si>
+  <si>
+    <t>women_cycle_change</t>
+  </si>
+  <si>
+    <t>watchfreq</t>
+  </si>
+  <si>
+    <t>supports</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>remove</t>
   </si>
 </sst>
 </file>
@@ -2814,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5319468-0651-CB48-84DD-4DB55BDF580F}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -3196,7 +3199,7 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3332,1202 +3335,1202 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B11" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B12" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B13" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B14" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B15" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B16" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B17" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B18" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B19" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B20" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B21" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B22" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B23" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B24" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B25" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B26" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B27" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B28" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B29" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B30" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B31" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B32" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B33" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B34" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B35" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B36" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B37" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B38" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B39" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B40" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B41" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B42" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B43" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B44" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B45" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B46" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B47" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B48" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B49" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B50" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B51" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B52" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B53" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B54" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B55" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B56" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B57" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B58" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B59" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B60" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B61" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B62" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B63" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B64" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B65" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B66" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B67" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B68" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B69" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B70" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B71" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B72" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B73" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B74" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B75" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B76" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B77" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B78" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B79" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B80" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B81" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B82" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B83" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B84" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B85" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B86" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B87" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B88" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B89" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B90" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B91" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B92" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B93" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B94" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B95" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B96" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B97" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B98" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B99" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B100" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B101" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B102" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B103" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B104" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B105" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B106" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B107" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B108" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B109" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B110" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B111" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B112" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B113" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B114" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B115" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B116" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B117" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B118" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B119" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B120" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B121" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B122" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B123" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B124" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B125" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B126" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B127" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B128" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B129" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B130" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B131" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B132" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B133" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B134" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B135" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B136" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B137" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B138" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B139" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B140" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B141" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B142" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B143" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B144" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B145" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B146" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B147" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B148" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B149" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B150" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B151" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -5296,10 +5299,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271D06C8-E610-FE49-929B-38258FE943CA}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5314,492 +5317,495 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B21" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B22" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B23" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+      <c r="B38" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>308</v>
+        <v>798</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>799</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B52" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B53" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B54" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B58" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B59" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B60" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B61" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B62" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B63" t="s">
         <v>400</v>
@@ -5807,108 +5813,122 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B64" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B65" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s">
-        <v>404</v>
+        <v>795</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B67" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="B69" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B70" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B71" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>341</v>
+        <v>339</v>
+      </c>
+      <c r="B72" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B73" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B74" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B76" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B77" t="s">
-        <v>412</v>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>345</v>
+      </c>
+      <c r="B78" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -5937,42 +5957,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5980,7 +6000,7 @@
         <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5988,23 +6008,23 @@
         <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -6012,7 +6032,7 @@
         <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -6020,7 +6040,7 @@
         <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -6028,7 +6048,7 @@
         <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -6036,7 +6056,7 @@
         <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6044,7 +6064,7 @@
         <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -6052,263 +6072,263 @@
         <v>254</v>
       </c>
       <c r="B16" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B18" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B20" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B23" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B24" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B25" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B26" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B27" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B28" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B29" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B30" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B31" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B32" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B33" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B34" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B35" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B36" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B37" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B38" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B39" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B40" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B41" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B42" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B43" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B44" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B45" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B46" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B47" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B48" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/varnames.xlsx
+++ b/data/raw/varnames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickgirdwood/r/traildata/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2987430-ECA2-8945-8E99-8DC2E1BB3ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E245E2-1652-054C-A99C-AC54D9264E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
   </bookViews>
   <sheets>
     <sheet name="koos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="tampa" sheetId="4" r:id="rId4"/>
     <sheet name="kses" sheetId="5" r:id="rId5"/>
     <sheet name="pass" sheetId="6" r:id="rId6"/>
-    <sheet name="visa" sheetId="7" r:id="rId7"/>
+    <sheet name="visaa" sheetId="7" r:id="rId7"/>
     <sheet name="baselineq" sheetId="8" r:id="rId8"/>
     <sheet name="phonescreen" sheetId="9" r:id="rId9"/>
     <sheet name="lab" sheetId="10" r:id="rId10"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="801">
   <si>
     <t>How often is your knee painful?</t>
   </si>
@@ -2036,12 +2036,6 @@
     <t>msi_heeltoedrop</t>
   </si>
   <si>
-    <t>msi_heltoedrop_score</t>
-  </si>
-  <si>
-    <t>msi_stackeheight_score</t>
-  </si>
-  <si>
     <t>msi_weight_score</t>
   </si>
   <si>
@@ -2454,6 +2448,15 @@
   </si>
   <si>
     <t>remove</t>
+  </si>
+  <si>
+    <t>msi_stackheight_score</t>
+  </si>
+  <si>
+    <t>r_sidehop_pain</t>
+  </si>
+  <si>
+    <t>msi_heeltoedrop_score</t>
   </si>
 </sst>
 </file>
@@ -2818,7 +2821,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B42" sqref="A1:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3199,7 +3202,7 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3316,8 +3319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE58B0A-C65C-F34C-A2D4-01F7C192B455}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3338,7 +3341,7 @@
         <v>501</v>
       </c>
       <c r="B2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3402,7 +3405,7 @@
         <v>508</v>
       </c>
       <c r="B10" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3450,7 +3453,7 @@
         <v>514</v>
       </c>
       <c r="B16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3466,7 +3469,7 @@
         <v>516</v>
       </c>
       <c r="B18" t="s">
-        <v>661</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3490,7 +3493,7 @@
         <v>519</v>
       </c>
       <c r="B21" t="s">
-        <v>660</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3498,7 +3501,7 @@
         <v>520</v>
       </c>
       <c r="B22" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3506,7 +3509,7 @@
         <v>521</v>
       </c>
       <c r="B23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3514,7 +3517,7 @@
         <v>522</v>
       </c>
       <c r="B24" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3522,7 +3525,7 @@
         <v>523</v>
       </c>
       <c r="B25" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3530,7 +3533,7 @@
         <v>524</v>
       </c>
       <c r="B26" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3538,7 +3541,7 @@
         <v>525</v>
       </c>
       <c r="B27" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3546,7 +3549,7 @@
         <v>526</v>
       </c>
       <c r="B28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3554,7 +3557,7 @@
         <v>527</v>
       </c>
       <c r="B29" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3562,7 +3565,7 @@
         <v>528</v>
       </c>
       <c r="B30" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3570,7 +3573,7 @@
         <v>529</v>
       </c>
       <c r="B31" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3578,7 +3581,7 @@
         <v>530</v>
       </c>
       <c r="B32" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3586,7 +3589,7 @@
         <v>531</v>
       </c>
       <c r="B33" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3594,7 +3597,7 @@
         <v>532</v>
       </c>
       <c r="B34" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3602,7 +3605,7 @@
         <v>533</v>
       </c>
       <c r="B35" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3610,7 +3613,7 @@
         <v>534</v>
       </c>
       <c r="B36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3618,7 +3621,7 @@
         <v>535</v>
       </c>
       <c r="B37" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3626,7 +3629,7 @@
         <v>536</v>
       </c>
       <c r="B38" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3634,7 +3637,7 @@
         <v>537</v>
       </c>
       <c r="B39" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3642,7 +3645,7 @@
         <v>538</v>
       </c>
       <c r="B40" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3650,7 +3653,7 @@
         <v>539</v>
       </c>
       <c r="B41" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3658,7 +3661,7 @@
         <v>540</v>
       </c>
       <c r="B42" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3666,7 +3669,7 @@
         <v>541</v>
       </c>
       <c r="B43" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3674,7 +3677,7 @@
         <v>542</v>
       </c>
       <c r="B44" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3682,7 +3685,7 @@
         <v>543</v>
       </c>
       <c r="B45" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3690,7 +3693,7 @@
         <v>544</v>
       </c>
       <c r="B46" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3698,7 +3701,7 @@
         <v>545</v>
       </c>
       <c r="B47" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3706,7 +3709,7 @@
         <v>546</v>
       </c>
       <c r="B48" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3714,7 +3717,7 @@
         <v>547</v>
       </c>
       <c r="B49" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3722,7 +3725,7 @@
         <v>548</v>
       </c>
       <c r="B50" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3730,7 +3733,7 @@
         <v>549</v>
       </c>
       <c r="B51" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3738,7 +3741,7 @@
         <v>550</v>
       </c>
       <c r="B52" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3746,7 +3749,7 @@
         <v>551</v>
       </c>
       <c r="B53" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3754,7 +3757,7 @@
         <v>552</v>
       </c>
       <c r="B54" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3762,7 +3765,7 @@
         <v>553</v>
       </c>
       <c r="B55" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3770,7 +3773,7 @@
         <v>554</v>
       </c>
       <c r="B56" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -3778,7 +3781,7 @@
         <v>555</v>
       </c>
       <c r="B57" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -3786,7 +3789,7 @@
         <v>556</v>
       </c>
       <c r="B58" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -3794,7 +3797,7 @@
         <v>557</v>
       </c>
       <c r="B59" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -3802,7 +3805,7 @@
         <v>558</v>
       </c>
       <c r="B60" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -3810,7 +3813,7 @@
         <v>559</v>
       </c>
       <c r="B61" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -3818,7 +3821,7 @@
         <v>560</v>
       </c>
       <c r="B62" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -3826,7 +3829,7 @@
         <v>561</v>
       </c>
       <c r="B63" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -3834,7 +3837,7 @@
         <v>562</v>
       </c>
       <c r="B64" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -3842,7 +3845,7 @@
         <v>563</v>
       </c>
       <c r="B65" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -3850,7 +3853,7 @@
         <v>564</v>
       </c>
       <c r="B66" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -3858,7 +3861,7 @@
         <v>565</v>
       </c>
       <c r="B67" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -3866,7 +3869,7 @@
         <v>566</v>
       </c>
       <c r="B68" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -3874,7 +3877,7 @@
         <v>567</v>
       </c>
       <c r="B69" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -3882,7 +3885,7 @@
         <v>568</v>
       </c>
       <c r="B70" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -3890,7 +3893,7 @@
         <v>569</v>
       </c>
       <c r="B71" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -3898,7 +3901,7 @@
         <v>570</v>
       </c>
       <c r="B72" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -3906,7 +3909,7 @@
         <v>571</v>
       </c>
       <c r="B73" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -3914,7 +3917,7 @@
         <v>572</v>
       </c>
       <c r="B74" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -3922,7 +3925,7 @@
         <v>573</v>
       </c>
       <c r="B75" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -3930,7 +3933,7 @@
         <v>574</v>
       </c>
       <c r="B76" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -3938,7 +3941,7 @@
         <v>575</v>
       </c>
       <c r="B77" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -3946,7 +3949,7 @@
         <v>576</v>
       </c>
       <c r="B78" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -3954,7 +3957,7 @@
         <v>577</v>
       </c>
       <c r="B79" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -3962,7 +3965,7 @@
         <v>578</v>
       </c>
       <c r="B80" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -3970,7 +3973,7 @@
         <v>579</v>
       </c>
       <c r="B81" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -3978,7 +3981,7 @@
         <v>580</v>
       </c>
       <c r="B82" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -3986,7 +3989,7 @@
         <v>581</v>
       </c>
       <c r="B83" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -3994,7 +3997,7 @@
         <v>582</v>
       </c>
       <c r="B84" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4002,7 +4005,7 @@
         <v>583</v>
       </c>
       <c r="B85" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4010,7 +4013,7 @@
         <v>584</v>
       </c>
       <c r="B86" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4018,7 +4021,7 @@
         <v>585</v>
       </c>
       <c r="B87" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4026,7 +4029,7 @@
         <v>586</v>
       </c>
       <c r="B88" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4034,7 +4037,7 @@
         <v>587</v>
       </c>
       <c r="B89" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4042,7 +4045,7 @@
         <v>588</v>
       </c>
       <c r="B90" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4050,7 +4053,7 @@
         <v>589</v>
       </c>
       <c r="B91" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4058,7 +4061,7 @@
         <v>590</v>
       </c>
       <c r="B92" t="s">
-        <v>689</v>
+        <v>799</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4066,7 +4069,7 @@
         <v>591</v>
       </c>
       <c r="B93" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4074,7 +4077,7 @@
         <v>592</v>
       </c>
       <c r="B94" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4082,7 +4085,7 @@
         <v>593</v>
       </c>
       <c r="B95" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4090,7 +4093,7 @@
         <v>594</v>
       </c>
       <c r="B96" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4098,7 +4101,7 @@
         <v>595</v>
       </c>
       <c r="B97" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4106,7 +4109,7 @@
         <v>596</v>
       </c>
       <c r="B98" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4114,7 +4117,7 @@
         <v>597</v>
       </c>
       <c r="B99" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4122,7 +4125,7 @@
         <v>598</v>
       </c>
       <c r="B100" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4130,7 +4133,7 @@
         <v>599</v>
       </c>
       <c r="B101" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4138,7 +4141,7 @@
         <v>600</v>
       </c>
       <c r="B102" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4146,7 +4149,7 @@
         <v>601</v>
       </c>
       <c r="B103" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4154,7 +4157,7 @@
         <v>602</v>
       </c>
       <c r="B104" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4162,7 +4165,7 @@
         <v>603</v>
       </c>
       <c r="B105" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4170,7 +4173,7 @@
         <v>604</v>
       </c>
       <c r="B106" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4178,7 +4181,7 @@
         <v>605</v>
       </c>
       <c r="B107" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4186,7 +4189,7 @@
         <v>606</v>
       </c>
       <c r="B108" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4194,7 +4197,7 @@
         <v>607</v>
       </c>
       <c r="B109" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4202,7 +4205,7 @@
         <v>608</v>
       </c>
       <c r="B110" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4210,7 +4213,7 @@
         <v>609</v>
       </c>
       <c r="B111" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -4218,7 +4221,7 @@
         <v>610</v>
       </c>
       <c r="B112" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4226,7 +4229,7 @@
         <v>611</v>
       </c>
       <c r="B113" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4234,7 +4237,7 @@
         <v>612</v>
       </c>
       <c r="B114" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4242,7 +4245,7 @@
         <v>613</v>
       </c>
       <c r="B115" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4250,7 +4253,7 @@
         <v>614</v>
       </c>
       <c r="B116" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4258,7 +4261,7 @@
         <v>615</v>
       </c>
       <c r="B117" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4266,7 +4269,7 @@
         <v>616</v>
       </c>
       <c r="B118" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4274,7 +4277,7 @@
         <v>617</v>
       </c>
       <c r="B119" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4282,7 +4285,7 @@
         <v>618</v>
       </c>
       <c r="B120" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4290,7 +4293,7 @@
         <v>619</v>
       </c>
       <c r="B121" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4298,7 +4301,7 @@
         <v>620</v>
       </c>
       <c r="B122" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4306,7 +4309,7 @@
         <v>621</v>
       </c>
       <c r="B123" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4314,7 +4317,7 @@
         <v>622</v>
       </c>
       <c r="B124" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4322,7 +4325,7 @@
         <v>623</v>
       </c>
       <c r="B125" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4330,7 +4333,7 @@
         <v>624</v>
       </c>
       <c r="B126" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4338,7 +4341,7 @@
         <v>625</v>
       </c>
       <c r="B127" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4346,7 +4349,7 @@
         <v>626</v>
       </c>
       <c r="B128" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4354,7 +4357,7 @@
         <v>627</v>
       </c>
       <c r="B129" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4362,7 +4365,7 @@
         <v>628</v>
       </c>
       <c r="B130" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4370,7 +4373,7 @@
         <v>629</v>
       </c>
       <c r="B131" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4378,7 +4381,7 @@
         <v>630</v>
       </c>
       <c r="B132" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4386,7 +4389,7 @@
         <v>631</v>
       </c>
       <c r="B133" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4394,7 +4397,7 @@
         <v>632</v>
       </c>
       <c r="B134" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4402,7 +4405,7 @@
         <v>633</v>
       </c>
       <c r="B135" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4410,7 +4413,7 @@
         <v>634</v>
       </c>
       <c r="B136" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4418,7 +4421,7 @@
         <v>635</v>
       </c>
       <c r="B137" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4426,7 +4429,7 @@
         <v>636</v>
       </c>
       <c r="B138" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4434,7 +4437,7 @@
         <v>637</v>
       </c>
       <c r="B139" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4442,7 +4445,7 @@
         <v>638</v>
       </c>
       <c r="B140" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4450,7 +4453,7 @@
         <v>639</v>
       </c>
       <c r="B141" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4458,7 +4461,7 @@
         <v>640</v>
       </c>
       <c r="B142" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4466,7 +4469,7 @@
         <v>641</v>
       </c>
       <c r="B143" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4474,7 +4477,7 @@
         <v>642</v>
       </c>
       <c r="B144" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4482,7 +4485,7 @@
         <v>643</v>
       </c>
       <c r="B145" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4490,7 +4493,7 @@
         <v>644</v>
       </c>
       <c r="B146" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4498,7 +4501,7 @@
         <v>645</v>
       </c>
       <c r="B147" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4506,7 +4509,7 @@
         <v>646</v>
       </c>
       <c r="B148" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4514,7 +4517,7 @@
         <v>647</v>
       </c>
       <c r="B149" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4522,7 +4525,7 @@
         <v>648</v>
       </c>
       <c r="B150" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4530,7 +4533,7 @@
         <v>649</v>
       </c>
       <c r="B151" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -4543,7 +4546,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B7" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4631,7 +4634,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B5" sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4791,7 +4794,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4959,7 +4962,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B8" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5143,7 +5146,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5182,7 +5185,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A5" sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5301,8 +5304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271D06C8-E610-FE49-929B-38258FE943CA}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5613,10 +5616,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B39" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -5832,7 +5835,7 @@
         <v>333</v>
       </c>
       <c r="B66" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -5920,7 +5923,7 @@
         <v>344</v>
       </c>
       <c r="B77" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -5928,7 +5931,7 @@
         <v>345</v>
       </c>
       <c r="B78" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -5941,8 +5944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44242BA3-67F1-1240-9734-7F51170FA6B6}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="A1:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/raw/varnames.xlsx
+++ b/data/raw/varnames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickgirdwood/r/traildata/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E245E2-1652-054C-A99C-AC54D9264E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A56649C-7D10-4A4F-AFE9-43A6786C05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
   </bookViews>
   <sheets>
     <sheet name="koos" sheetId="1" r:id="rId1"/>
@@ -1195,9 +1195,6 @@
     <t>l_stiffness</t>
   </si>
   <si>
-    <t>r_stiffnes</t>
-  </si>
-  <si>
     <t>l_crepitus</t>
   </si>
   <si>
@@ -2457,6 +2454,9 @@
   </si>
   <si>
     <t>msi_heeltoedrop_score</t>
+  </si>
+  <si>
+    <t>r_stiffness</t>
   </si>
 </sst>
 </file>
@@ -3202,7 +3202,7 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3319,7 +3319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE58B0A-C65C-F34C-A2D4-01F7C192B455}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -3338,55 +3338,55 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B8" t="s">
         <v>346</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B9" t="s">
         <v>347</v>
@@ -3402,1138 +3402,1138 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B19" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B25" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B35" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B39" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B41" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B42" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B43" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B44" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B45" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B46" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B47" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B48" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B49" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B50" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B51" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B52" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B53" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B54" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B55" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B56" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B57" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B58" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B59" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B60" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B61" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B62" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B63" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B64" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B65" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B66" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B67" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B68" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B69" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B70" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B71" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B72" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B73" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B74" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B75" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B76" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B77" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B78" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B79" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B80" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B81" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B82" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B83" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B84" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B85" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B86" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B87" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B88" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B89" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B90" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B91" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B92" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B93" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B94" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B95" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B96" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B97" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B98" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B99" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B100" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B101" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B102" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B103" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B104" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B105" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B106" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B107" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B108" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B109" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B110" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B111" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B112" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B113" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B115" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B116" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B117" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B118" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B119" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B120" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B121" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B122" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B123" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B124" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B125" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B126" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B128" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B129" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B130" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B131" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B132" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B133" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B134" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B135" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B136" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B137" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B138" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B139" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B140" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B141" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B142" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B143" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B144" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B145" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B146" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B147" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B148" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B149" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B150" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B151" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -5304,8 +5304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271D06C8-E610-FE49-929B-38258FE943CA}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B78"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5320,10 +5320,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5363,7 +5363,7 @@
         <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5371,7 +5371,7 @@
         <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5403,7 +5403,7 @@
         <v>280</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5459,7 +5459,7 @@
         <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5491,7 +5491,7 @@
         <v>291</v>
       </c>
       <c r="B23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -5616,10 +5616,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>795</v>
+      </c>
+      <c r="B39" t="s">
         <v>796</v>
-      </c>
-      <c r="B39" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -5651,7 +5651,7 @@
         <v>310</v>
       </c>
       <c r="B43" t="s">
-        <v>380</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -5659,7 +5659,7 @@
         <v>311</v>
       </c>
       <c r="B44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -5667,7 +5667,7 @@
         <v>312</v>
       </c>
       <c r="B45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -5675,7 +5675,7 @@
         <v>313</v>
       </c>
       <c r="B46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -5683,7 +5683,7 @@
         <v>314</v>
       </c>
       <c r="B47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -5691,7 +5691,7 @@
         <v>315</v>
       </c>
       <c r="B48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -5699,7 +5699,7 @@
         <v>316</v>
       </c>
       <c r="B49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -5707,7 +5707,7 @@
         <v>317</v>
       </c>
       <c r="B50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -5715,7 +5715,7 @@
         <v>318</v>
       </c>
       <c r="B51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -5723,7 +5723,7 @@
         <v>319</v>
       </c>
       <c r="B52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -5731,7 +5731,7 @@
         <v>320</v>
       </c>
       <c r="B53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -5739,7 +5739,7 @@
         <v>321</v>
       </c>
       <c r="B54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -5747,7 +5747,7 @@
         <v>322</v>
       </c>
       <c r="B55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -5755,7 +5755,7 @@
         <v>323</v>
       </c>
       <c r="B56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -5763,7 +5763,7 @@
         <v>324</v>
       </c>
       <c r="B57" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -5771,7 +5771,7 @@
         <v>325</v>
       </c>
       <c r="B58" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -5779,7 +5779,7 @@
         <v>326</v>
       </c>
       <c r="B59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -5787,7 +5787,7 @@
         <v>327</v>
       </c>
       <c r="B60" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -5795,7 +5795,7 @@
         <v>328</v>
       </c>
       <c r="B61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -5803,7 +5803,7 @@
         <v>329</v>
       </c>
       <c r="B62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -5811,7 +5811,7 @@
         <v>330</v>
       </c>
       <c r="B63" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -5819,7 +5819,7 @@
         <v>331</v>
       </c>
       <c r="B64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -5827,7 +5827,7 @@
         <v>332</v>
       </c>
       <c r="B65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -5835,7 +5835,7 @@
         <v>333</v>
       </c>
       <c r="B66" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -5843,7 +5843,7 @@
         <v>334</v>
       </c>
       <c r="B67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -5851,7 +5851,7 @@
         <v>335</v>
       </c>
       <c r="B68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -5859,7 +5859,7 @@
         <v>336</v>
       </c>
       <c r="B69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -5875,7 +5875,7 @@
         <v>338</v>
       </c>
       <c r="B71" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -5883,7 +5883,7 @@
         <v>339</v>
       </c>
       <c r="B72" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -5899,7 +5899,7 @@
         <v>341</v>
       </c>
       <c r="B74" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -5907,7 +5907,7 @@
         <v>342</v>
       </c>
       <c r="B75" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -5915,7 +5915,7 @@
         <v>343</v>
       </c>
       <c r="B76" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -5923,7 +5923,7 @@
         <v>344</v>
       </c>
       <c r="B77" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -5931,7 +5931,7 @@
         <v>345</v>
       </c>
       <c r="B78" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -5960,42 +5960,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -6003,7 +6003,7 @@
         <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -6011,12 +6011,12 @@
         <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
         <v>349</v>
@@ -6024,10 +6024,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -6035,7 +6035,7 @@
         <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -6043,7 +6043,7 @@
         <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -6051,7 +6051,7 @@
         <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -6059,7 +6059,7 @@
         <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6067,7 +6067,7 @@
         <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -6075,263 +6075,263 @@
         <v>254</v>
       </c>
       <c r="B16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B46" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B47" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B48" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/varnames.xlsx
+++ b/data/raw/varnames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickgirdwood/r/traildata/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A56649C-7D10-4A4F-AFE9-43A6786C05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B670D566-AF07-9E40-BF35-08A2A7978C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
+    <workbookView xWindow="35060" yWindow="40" windowWidth="28800" windowHeight="17500" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
   </bookViews>
   <sheets>
     <sheet name="koos" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="baselineq" sheetId="8" r:id="rId8"/>
     <sheet name="phonescreen" sheetId="9" r:id="rId9"/>
     <sheet name="lab" sheetId="10" r:id="rId10"/>
+    <sheet name="monthlypain" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,6 +37,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="853">
   <si>
     <t>How often is your knee painful?</t>
   </si>
@@ -226,177 +229,6 @@
     <t>KOOS_pf_Score</t>
   </si>
   <si>
-    <t>koos_P1</t>
-  </si>
-  <si>
-    <t>koos_P2</t>
-  </si>
-  <si>
-    <t>koos_P3</t>
-  </si>
-  <si>
-    <t>koos_P4</t>
-  </si>
-  <si>
-    <t>koos_P5</t>
-  </si>
-  <si>
-    <t>koos_P6</t>
-  </si>
-  <si>
-    <t>koos_P7</t>
-  </si>
-  <si>
-    <t>koos_P8</t>
-  </si>
-  <si>
-    <t>koos_P9</t>
-  </si>
-  <si>
-    <t>koos_P_total</t>
-  </si>
-  <si>
-    <t>koos_S1</t>
-  </si>
-  <si>
-    <t>koos_S2</t>
-  </si>
-  <si>
-    <t>koos_S3</t>
-  </si>
-  <si>
-    <t>koos_S4</t>
-  </si>
-  <si>
-    <t>koos_S5</t>
-  </si>
-  <si>
-    <t>koos_S6</t>
-  </si>
-  <si>
-    <t>koos_S7</t>
-  </si>
-  <si>
-    <t>koos_S_total</t>
-  </si>
-  <si>
-    <t>koos_A1</t>
-  </si>
-  <si>
-    <t>koos_A2</t>
-  </si>
-  <si>
-    <t>koos_A3</t>
-  </si>
-  <si>
-    <t>koos_A4</t>
-  </si>
-  <si>
-    <t>koos_A5</t>
-  </si>
-  <si>
-    <t>koos_A7</t>
-  </si>
-  <si>
-    <t>koos_A8</t>
-  </si>
-  <si>
-    <t>koos_A9</t>
-  </si>
-  <si>
-    <t>koos_A10</t>
-  </si>
-  <si>
-    <t>koos_A11</t>
-  </si>
-  <si>
-    <t>koos_A12</t>
-  </si>
-  <si>
-    <t>koos_A13</t>
-  </si>
-  <si>
-    <t>koos_A14</t>
-  </si>
-  <si>
-    <t>koos_A15</t>
-  </si>
-  <si>
-    <t>koos_A16</t>
-  </si>
-  <si>
-    <t>koos_A_total</t>
-  </si>
-  <si>
-    <t>koos_SP1</t>
-  </si>
-  <si>
-    <t>koos_SP2</t>
-  </si>
-  <si>
-    <t>koos_SP3</t>
-  </si>
-  <si>
-    <t>koos_SP4</t>
-  </si>
-  <si>
-    <t>koos_SP5</t>
-  </si>
-  <si>
-    <t>koos_SP_total</t>
-  </si>
-  <si>
-    <t>koos_Q1</t>
-  </si>
-  <si>
-    <t>koos_Q2</t>
-  </si>
-  <si>
-    <t>koos_Q3</t>
-  </si>
-  <si>
-    <t>koos_Q4</t>
-  </si>
-  <si>
-    <t>koos_Q_total</t>
-  </si>
-  <si>
-    <t>koos_PF1</t>
-  </si>
-  <si>
-    <t>koos_PF2</t>
-  </si>
-  <si>
-    <t>koos_PF3</t>
-  </si>
-  <si>
-    <t>koos_PF4</t>
-  </si>
-  <si>
-    <t>koos_PF5</t>
-  </si>
-  <si>
-    <t>koos_PF6</t>
-  </si>
-  <si>
-    <t>koos_PF7</t>
-  </si>
-  <si>
-    <t>koos_PF8</t>
-  </si>
-  <si>
-    <t>koos_PF9</t>
-  </si>
-  <si>
-    <t>koos_PF10</t>
-  </si>
-  <si>
-    <t>koos_PF11</t>
-  </si>
-  <si>
-    <t>koos_PF_total</t>
-  </si>
-  <si>
     <t>koos_total</t>
   </si>
   <si>
@@ -2117,9 +1949,6 @@
     <t>r_sidehop_pain_pre</t>
   </si>
   <si>
-    <t>sidehop_anxiiety_pre</t>
-  </si>
-  <si>
     <t>l_sidehop_good</t>
   </si>
   <si>
@@ -2429,9 +2258,6 @@
     <t>r_olr</t>
   </si>
   <si>
-    <t>koos_A17</t>
-  </si>
-  <si>
     <t>women_cycle_change</t>
   </si>
   <si>
@@ -2441,12 +2267,6 @@
     <t>supports</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>remove</t>
-  </si>
-  <si>
     <t>msi_stackheight_score</t>
   </si>
   <si>
@@ -2457,13 +2277,352 @@
   </si>
   <si>
     <t>r_stiffness</t>
+  </si>
+  <si>
+    <t>Knee Pain</t>
+  </si>
+  <si>
+    <t>Knee Pain Score</t>
+  </si>
+  <si>
+    <t>FRONT Left knee</t>
+  </si>
+  <si>
+    <t>BACK Left knee</t>
+  </si>
+  <si>
+    <t>OUTSIDE Left knee</t>
+  </si>
+  <si>
+    <t>INSIDE Left knee</t>
+  </si>
+  <si>
+    <t>FRONT Right knee</t>
+  </si>
+  <si>
+    <t>BACK Right knee</t>
+  </si>
+  <si>
+    <t>OUTSIDE Right knee</t>
+  </si>
+  <si>
+    <t>INSIDE Right knee</t>
+  </si>
+  <si>
+    <t>Participation in normal training and running competition: Knee</t>
+  </si>
+  <si>
+    <t>Achilles Pain</t>
+  </si>
+  <si>
+    <t>Achilles Pain Score</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H (Other)</t>
+  </si>
+  <si>
+    <t>Participation in normal training and running competition: Achilles</t>
+  </si>
+  <si>
+    <t>Other Pain</t>
+  </si>
+  <si>
+    <t>Other Pain Score</t>
+  </si>
+  <si>
+    <t>Other Pain Area</t>
+  </si>
+  <si>
+    <t>Participation in normal training and running competition: Other pain</t>
+  </si>
+  <si>
+    <t>l_knee_painfront</t>
+  </si>
+  <si>
+    <t>l_knee_painback</t>
+  </si>
+  <si>
+    <t>l_knee_painoutside</t>
+  </si>
+  <si>
+    <t>l_knee_paininside</t>
+  </si>
+  <si>
+    <t>r_knee_painfront</t>
+  </si>
+  <si>
+    <t>r_knee_painback</t>
+  </si>
+  <si>
+    <t>r_knee_painoutside</t>
+  </si>
+  <si>
+    <t>r_knee_paininside</t>
+  </si>
+  <si>
+    <t>achilles_a</t>
+  </si>
+  <si>
+    <t>achilles_b</t>
+  </si>
+  <si>
+    <t>achilles_c</t>
+  </si>
+  <si>
+    <t>achilles_d</t>
+  </si>
+  <si>
+    <t>achilles_e</t>
+  </si>
+  <si>
+    <t>achilles_f</t>
+  </si>
+  <si>
+    <t>achilles_g</t>
+  </si>
+  <si>
+    <t>achilles_h</t>
+  </si>
+  <si>
+    <t>ostrc_pain_knee</t>
+  </si>
+  <si>
+    <t>ostrc_pain_knee_x</t>
+  </si>
+  <si>
+    <t>ostrc_participation_knee</t>
+  </si>
+  <si>
+    <t>ostrc_achilles_x</t>
+  </si>
+  <si>
+    <t>ostrc_achilles</t>
+  </si>
+  <si>
+    <t>ostrc_achilles_participation</t>
+  </si>
+  <si>
+    <t>ostrc_pain_other</t>
+  </si>
+  <si>
+    <t>ostrc_pain_other_x</t>
+  </si>
+  <si>
+    <t>other_location</t>
+  </si>
+  <si>
+    <t>ostrc_participation_other</t>
+  </si>
+  <si>
+    <t>Walking on a flat surface</t>
+  </si>
+  <si>
+    <t>sidehop_anxiety_pre</t>
+  </si>
+  <si>
+    <t>koos_pf1</t>
+  </si>
+  <si>
+    <t>koos_pf2</t>
+  </si>
+  <si>
+    <t>koos_pf3</t>
+  </si>
+  <si>
+    <t>koos_pf4</t>
+  </si>
+  <si>
+    <t>koos_pf5</t>
+  </si>
+  <si>
+    <t>koos_pf6</t>
+  </si>
+  <si>
+    <t>koos_pf7</t>
+  </si>
+  <si>
+    <t>koos_pf8</t>
+  </si>
+  <si>
+    <t>koos_pf9</t>
+  </si>
+  <si>
+    <t>koos_pf10</t>
+  </si>
+  <si>
+    <t>koos_pf11</t>
+  </si>
+  <si>
+    <t>koos_pf_total</t>
+  </si>
+  <si>
+    <t>koos_p1</t>
+  </si>
+  <si>
+    <t>koos_p2</t>
+  </si>
+  <si>
+    <t>koos_p3</t>
+  </si>
+  <si>
+    <t>koos_p4</t>
+  </si>
+  <si>
+    <t>koos_p5</t>
+  </si>
+  <si>
+    <t>koos_p6</t>
+  </si>
+  <si>
+    <t>koos_p7</t>
+  </si>
+  <si>
+    <t>koos_p8</t>
+  </si>
+  <si>
+    <t>koos_p9</t>
+  </si>
+  <si>
+    <t>koos_p_total</t>
+  </si>
+  <si>
+    <t>koos_s1</t>
+  </si>
+  <si>
+    <t>koos_s2</t>
+  </si>
+  <si>
+    <t>koos_s3</t>
+  </si>
+  <si>
+    <t>koos_s4</t>
+  </si>
+  <si>
+    <t>koos_s5</t>
+  </si>
+  <si>
+    <t>koos_s6</t>
+  </si>
+  <si>
+    <t>koos_s7</t>
+  </si>
+  <si>
+    <t>koos_s_total</t>
+  </si>
+  <si>
+    <t>koos_a1</t>
+  </si>
+  <si>
+    <t>koos_a2</t>
+  </si>
+  <si>
+    <t>koos_a3</t>
+  </si>
+  <si>
+    <t>koos_a4</t>
+  </si>
+  <si>
+    <t>koos_a5</t>
+  </si>
+  <si>
+    <t>koos_a6</t>
+  </si>
+  <si>
+    <t>koos_a7</t>
+  </si>
+  <si>
+    <t>koos_a8</t>
+  </si>
+  <si>
+    <t>koos_a9</t>
+  </si>
+  <si>
+    <t>koos_a10</t>
+  </si>
+  <si>
+    <t>koos_a11</t>
+  </si>
+  <si>
+    <t>koos_a12</t>
+  </si>
+  <si>
+    <t>koos_a13</t>
+  </si>
+  <si>
+    <t>koos_a14</t>
+  </si>
+  <si>
+    <t>koos_a15</t>
+  </si>
+  <si>
+    <t>koos_a16</t>
+  </si>
+  <si>
+    <t>koos_a17</t>
+  </si>
+  <si>
+    <t>koos_a_total</t>
+  </si>
+  <si>
+    <t>koos_sp1</t>
+  </si>
+  <si>
+    <t>koos_sp2</t>
+  </si>
+  <si>
+    <t>koos_sp3</t>
+  </si>
+  <si>
+    <t>koos_sp4</t>
+  </si>
+  <si>
+    <t>koos_sp5</t>
+  </si>
+  <si>
+    <t>koos_sp_total</t>
+  </si>
+  <si>
+    <t>koos_q1</t>
+  </si>
+  <si>
+    <t>koos_q2</t>
+  </si>
+  <si>
+    <t>koos_q3</t>
+  </si>
+  <si>
+    <t>koos_q4</t>
+  </si>
+  <si>
+    <t>koos_q_total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2473,6 +2632,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2498,12 +2664,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2818,10 +2985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5319468-0651-CB48-84DD-4DB55BDF580F}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="A1:B60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2831,10 +2998,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2842,7 +3009,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2850,7 +3017,7 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2858,7 +3025,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2866,7 +3033,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2874,7 +3041,7 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2882,7 +3049,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2890,7 +3057,7 @@
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2898,7 +3065,7 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2906,7 +3073,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2914,7 +3081,7 @@
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2922,7 +3089,7 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2930,7 +3097,7 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2938,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -2946,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2954,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2962,7 +3129,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2970,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2978,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2986,7 +3153,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>812</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2994,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>813</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3002,7 +3169,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3010,7 +3177,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>815</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3018,7 +3185,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3026,7 +3193,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3034,7 +3201,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>818</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3042,7 +3209,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>819</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3050,7 +3217,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>820</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3058,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3066,7 +3233,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>822</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3074,7 +3241,7 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>823</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3082,7 +3249,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3090,7 +3257,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>825</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3098,7 +3265,7 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>826</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3106,7 +3273,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>827</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -3114,199 +3281,207 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>792</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>832</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>27</v>
       </c>
-      <c r="B41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>835</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>836</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>837</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>838</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>791</v>
+        <v>839</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>841</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>842</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>37</v>
       </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>39</v>
-      </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>845</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>846</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>848</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>849</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>850</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>851</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>46</v>
       </c>
-      <c r="B60" t="s">
-        <v>116</v>
+      <c r="B61" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +3495,7 @@
   <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3330,1210 +3505,1441 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
-        <v>755</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
-        <v>649</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
-        <v>650</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>448</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>449</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
-        <v>756</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>508</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
-        <v>651</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
-        <v>652</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="B13" t="s">
-        <v>653</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="B14" t="s">
-        <v>654</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>455</v>
       </c>
       <c r="B15" t="s">
-        <v>656</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>456</v>
       </c>
       <c r="B16" t="s">
-        <v>659</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="B17" t="s">
-        <v>655</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
-        <v>797</v>
+        <v>736</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s">
-        <v>657</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s">
-        <v>658</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="B21" t="s">
-        <v>799</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="B22" t="s">
-        <v>660</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="B23" t="s">
-        <v>661</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="B24" t="s">
-        <v>662</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
       <c r="B25" t="s">
-        <v>663</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>523</v>
+        <v>466</v>
       </c>
       <c r="B26" t="s">
-        <v>664</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="B27" t="s">
-        <v>665</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
       <c r="B28" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="B29" t="s">
-        <v>667</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
       <c r="B30" t="s">
-        <v>668</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
       <c r="B31" t="s">
-        <v>669</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="B32" t="s">
-        <v>670</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>530</v>
+        <v>473</v>
       </c>
       <c r="B33" t="s">
-        <v>671</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>531</v>
+        <v>474</v>
       </c>
       <c r="B34" t="s">
-        <v>672</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>532</v>
+        <v>475</v>
       </c>
       <c r="B35" t="s">
-        <v>789</v>
+        <v>731</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="B36" t="s">
-        <v>674</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="B37" t="s">
-        <v>673</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="B38" t="s">
-        <v>675</v>
+        <v>618</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="B39" t="s">
-        <v>676</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
       <c r="B40" t="s">
-        <v>677</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>538</v>
+        <v>481</v>
       </c>
       <c r="B41" t="s">
-        <v>678</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>539</v>
+        <v>482</v>
       </c>
       <c r="B42" t="s">
-        <v>769</v>
+        <v>711</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>540</v>
+        <v>483</v>
       </c>
       <c r="B43" t="s">
-        <v>770</v>
+        <v>712</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>541</v>
+        <v>484</v>
       </c>
       <c r="B44" t="s">
-        <v>684</v>
+        <v>627</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
       <c r="B45" t="s">
-        <v>771</v>
+        <v>713</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
       <c r="B46" t="s">
-        <v>772</v>
+        <v>714</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>544</v>
+        <v>487</v>
       </c>
       <c r="B47" t="s">
-        <v>773</v>
+        <v>715</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>545</v>
+        <v>488</v>
       </c>
       <c r="B48" t="s">
-        <v>774</v>
+        <v>716</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="B49" t="s">
-        <v>775</v>
+        <v>717</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>547</v>
+        <v>490</v>
       </c>
       <c r="B50" t="s">
-        <v>776</v>
+        <v>718</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>548</v>
+        <v>491</v>
       </c>
       <c r="B51" t="s">
-        <v>777</v>
+        <v>719</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
       <c r="B52" t="s">
-        <v>778</v>
+        <v>720</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="B53" t="s">
-        <v>679</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>551</v>
+        <v>494</v>
       </c>
       <c r="B54" t="s">
-        <v>780</v>
+        <v>722</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>552</v>
+        <v>495</v>
       </c>
       <c r="B55" t="s">
-        <v>779</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
       <c r="B56" t="s">
-        <v>683</v>
+        <v>626</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="B57" t="s">
-        <v>781</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>555</v>
+        <v>498</v>
       </c>
       <c r="B58" t="s">
-        <v>782</v>
+        <v>724</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>556</v>
+        <v>499</v>
       </c>
       <c r="B59" t="s">
-        <v>783</v>
+        <v>725</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="B60" t="s">
-        <v>784</v>
+        <v>726</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="B61" t="s">
-        <v>785</v>
+        <v>727</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="B62" t="s">
-        <v>786</v>
+        <v>728</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>560</v>
+        <v>503</v>
       </c>
       <c r="B63" t="s">
-        <v>787</v>
+        <v>729</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="B64" t="s">
-        <v>788</v>
+        <v>730</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s">
-        <v>680</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
       <c r="B66" t="s">
-        <v>757</v>
+        <v>699</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="B67" t="s">
-        <v>758</v>
+        <v>700</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
       <c r="B68" t="s">
-        <v>682</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="B69" t="s">
-        <v>759</v>
+        <v>701</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
       <c r="B70" t="s">
-        <v>760</v>
+        <v>702</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
       <c r="B71" t="s">
-        <v>761</v>
+        <v>703</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s">
-        <v>762</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="B73" t="s">
-        <v>763</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="B74" t="s">
-        <v>764</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="B75" t="s">
-        <v>765</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="B76" t="s">
-        <v>766</v>
+        <v>708</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="B77" t="s">
-        <v>767</v>
+        <v>709</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="B78" t="s">
-        <v>768</v>
+        <v>710</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="B79" t="s">
-        <v>681</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="B80" t="s">
-        <v>685</v>
+        <v>628</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>578</v>
+        <v>521</v>
       </c>
       <c r="B81" t="s">
-        <v>686</v>
+        <v>629</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="B82" t="s">
-        <v>687</v>
+        <v>793</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="B83" t="s">
-        <v>688</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="B84" t="s">
-        <v>689</v>
+        <v>631</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="B85" t="s">
-        <v>690</v>
+        <v>632</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>583</v>
+        <v>526</v>
       </c>
       <c r="B86" t="s">
-        <v>691</v>
+        <v>633</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>584</v>
+        <v>527</v>
       </c>
       <c r="B87" t="s">
-        <v>692</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>585</v>
+        <v>528</v>
       </c>
       <c r="B88" t="s">
-        <v>693</v>
+        <v>635</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>586</v>
+        <v>529</v>
       </c>
       <c r="B89" t="s">
-        <v>694</v>
+        <v>636</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
       <c r="B90" t="s">
-        <v>695</v>
+        <v>637</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
       <c r="B91" t="s">
-        <v>696</v>
+        <v>638</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="B92" t="s">
-        <v>798</v>
+        <v>737</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="B93" t="s">
-        <v>697</v>
+        <v>639</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="B94" t="s">
-        <v>698</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="B95" t="s">
-        <v>699</v>
+        <v>641</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="B96" t="s">
-        <v>700</v>
+        <v>642</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="B97" t="s">
-        <v>701</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>595</v>
+        <v>538</v>
       </c>
       <c r="B98" t="s">
-        <v>702</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>596</v>
+        <v>539</v>
       </c>
       <c r="B99" t="s">
-        <v>703</v>
+        <v>645</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="B100" t="s">
-        <v>704</v>
+        <v>646</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="B101" t="s">
-        <v>705</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="B102" t="s">
-        <v>706</v>
+        <v>648</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="B103" t="s">
-        <v>707</v>
+        <v>649</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="B104" t="s">
-        <v>708</v>
+        <v>650</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>602</v>
+        <v>545</v>
       </c>
       <c r="B105" t="s">
-        <v>709</v>
+        <v>651</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="B106" t="s">
-        <v>710</v>
+        <v>652</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>604</v>
+        <v>547</v>
       </c>
       <c r="B107" t="s">
-        <v>711</v>
+        <v>653</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="B108" t="s">
-        <v>712</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
       <c r="B109" t="s">
-        <v>713</v>
+        <v>655</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="B110" t="s">
-        <v>714</v>
+        <v>656</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="B111" t="s">
-        <v>715</v>
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="B112" t="s">
-        <v>716</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="B113" t="s">
-        <v>717</v>
+        <v>659</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
       <c r="B114" t="s">
-        <v>718</v>
+        <v>660</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="B115" t="s">
-        <v>719</v>
+        <v>661</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>613</v>
+        <v>556</v>
       </c>
       <c r="B116" t="s">
-        <v>720</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>614</v>
+        <v>557</v>
       </c>
       <c r="B117" t="s">
-        <v>721</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>615</v>
+        <v>558</v>
       </c>
       <c r="B118" t="s">
-        <v>722</v>
+        <v>664</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>616</v>
+        <v>559</v>
       </c>
       <c r="B119" t="s">
-        <v>723</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>617</v>
+        <v>560</v>
       </c>
       <c r="B120" t="s">
-        <v>724</v>
+        <v>666</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>618</v>
+        <v>561</v>
       </c>
       <c r="B121" t="s">
-        <v>725</v>
+        <v>667</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>619</v>
+        <v>562</v>
       </c>
       <c r="B122" t="s">
-        <v>790</v>
+        <v>732</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="B123" t="s">
-        <v>726</v>
+        <v>668</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>621</v>
+        <v>564</v>
       </c>
       <c r="B124" t="s">
-        <v>727</v>
+        <v>669</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
       <c r="B125" t="s">
-        <v>728</v>
+        <v>670</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>623</v>
+        <v>566</v>
       </c>
       <c r="B126" t="s">
-        <v>729</v>
+        <v>671</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>624</v>
+        <v>567</v>
       </c>
       <c r="B127" t="s">
-        <v>730</v>
+        <v>672</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>625</v>
+        <v>568</v>
       </c>
       <c r="B128" t="s">
-        <v>731</v>
+        <v>673</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="B129" t="s">
-        <v>732</v>
+        <v>674</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>627</v>
+        <v>570</v>
       </c>
       <c r="B130" t="s">
-        <v>733</v>
+        <v>675</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>628</v>
+        <v>571</v>
       </c>
       <c r="B131" t="s">
-        <v>734</v>
+        <v>676</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>629</v>
+        <v>572</v>
       </c>
       <c r="B132" t="s">
-        <v>735</v>
+        <v>677</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>630</v>
+        <v>573</v>
       </c>
       <c r="B133" t="s">
-        <v>736</v>
+        <v>678</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>631</v>
+        <v>574</v>
       </c>
       <c r="B134" t="s">
-        <v>737</v>
+        <v>679</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>632</v>
+        <v>575</v>
       </c>
       <c r="B135" t="s">
-        <v>738</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>633</v>
+        <v>576</v>
       </c>
       <c r="B136" t="s">
-        <v>739</v>
+        <v>681</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>634</v>
+        <v>577</v>
       </c>
       <c r="B137" t="s">
-        <v>740</v>
+        <v>682</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>635</v>
+        <v>578</v>
       </c>
       <c r="B138" t="s">
-        <v>741</v>
+        <v>683</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>636</v>
+        <v>579</v>
       </c>
       <c r="B139" t="s">
-        <v>742</v>
+        <v>684</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>637</v>
+        <v>580</v>
       </c>
       <c r="B140" t="s">
-        <v>743</v>
+        <v>685</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>638</v>
+        <v>581</v>
       </c>
       <c r="B141" t="s">
-        <v>744</v>
+        <v>686</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>639</v>
+        <v>582</v>
       </c>
       <c r="B142" t="s">
-        <v>745</v>
+        <v>687</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>640</v>
+        <v>583</v>
       </c>
       <c r="B143" t="s">
-        <v>746</v>
+        <v>688</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>641</v>
+        <v>584</v>
       </c>
       <c r="B144" t="s">
-        <v>747</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>642</v>
+        <v>585</v>
       </c>
       <c r="B145" t="s">
-        <v>748</v>
+        <v>690</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="B146" t="s">
-        <v>749</v>
+        <v>691</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="B147" t="s">
-        <v>750</v>
+        <v>692</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="B148" t="s">
-        <v>751</v>
+        <v>693</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>646</v>
+        <v>589</v>
       </c>
       <c r="B149" t="s">
-        <v>752</v>
+        <v>694</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>647</v>
+        <v>590</v>
       </c>
       <c r="B150" t="s">
-        <v>753</v>
+        <v>695</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>648</v>
+        <v>591</v>
       </c>
       <c r="B151" t="s">
+        <v>696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F43817-D083-0B4E-9830-C3D92E21EE6F}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>747</v>
+      </c>
+      <c r="B9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>749</v>
+      </c>
+      <c r="B11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>750</v>
+      </c>
+      <c r="B12" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>751</v>
+      </c>
+      <c r="B13" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>752</v>
+      </c>
+      <c r="B14" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>753</v>
+      </c>
+      <c r="B15" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>754</v>
+      </c>
+      <c r="B16" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>755</v>
+      </c>
+      <c r="B17" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>756</v>
+      </c>
+      <c r="B18" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>757</v>
+      </c>
+      <c r="B19" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>758</v>
+      </c>
+      <c r="B20" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>759</v>
+      </c>
+      <c r="B21" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>760</v>
+      </c>
+      <c r="B22" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>761</v>
+      </c>
+      <c r="B23" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>762</v>
+      </c>
+      <c r="B24" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>763</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>764</v>
+      </c>
+      <c r="B26" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>765</v>
+      </c>
+      <c r="B27" t="s">
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -4553,74 +4959,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4641,146 +5047,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4801,154 +5207,154 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4969,170 +5375,170 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5153,26 +5559,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5192,106 +5598,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5302,636 +5708,628 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271D06C8-E610-FE49-929B-38258FE943CA}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="B38" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>795</v>
+        <v>250</v>
       </c>
       <c r="B39" t="s">
-        <v>796</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>379</v>
+        <v>739</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B43" t="s">
-        <v>800</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="B45" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="B46" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="B48" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="B50" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="B51" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="B52" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="B53" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="B55" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="B56" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="B57" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="B58" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="B59" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="B60" t="s">
-        <v>414</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="B61" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="B62" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="B63" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="B64" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="B65" t="s">
-        <v>400</v>
+        <v>733</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="B66" t="s">
-        <v>792</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="B67" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="B68" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="B69" t="s">
-        <v>403</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="B70" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="B72" t="s">
-        <v>405</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="B73" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s">
-        <v>408</v>
+        <v>734</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="B77" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>345</v>
-      </c>
-      <c r="B78" t="s">
-        <v>794</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -5944,7 +6342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44242BA3-67F1-1240-9734-7F51170FA6B6}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B16" sqref="A1:B48"/>
     </sheetView>
   </sheetViews>
@@ -5952,386 +6350,386 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
-        <v>499</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="B20" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="B21" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="B22" t="s">
-        <v>470</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="B23" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>492</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
-        <v>493</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="B26" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="B27" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="B28" t="s">
-        <v>496</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="B29" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="B30" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="B31" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="B32" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="B33" t="s">
-        <v>476</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="B34" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="B35" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="B36" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="B37" t="s">
-        <v>480</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="B39" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="B40" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="B41" t="s">
-        <v>484</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="B42" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s">
-        <v>488</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s">
-        <v>486</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s">
-        <v>487</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s">
-        <v>490</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>491</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/varnames.xlsx
+++ b/data/raw/varnames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickgirdwood/r/traildata/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B670D566-AF07-9E40-BF35-08A2A7978C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA2E643-FB92-9746-8118-B534B3DE5BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35060" yWindow="40" windowWidth="28800" windowHeight="17500" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
+    <workbookView xWindow="35060" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
   </bookViews>
   <sheets>
     <sheet name="koos" sheetId="1" r:id="rId1"/>
@@ -1009,9 +1009,6 @@
     <t>training_stretch</t>
   </si>
   <si>
-    <t>training_strwtch_freq</t>
-  </si>
-  <si>
     <t>covid_runningvolume</t>
   </si>
   <si>
@@ -2616,6 +2613,9 @@
   </si>
   <si>
     <t>koos_q_total</t>
+  </si>
+  <si>
+    <t>training_stretch_freq</t>
   </si>
 </sst>
 </file>
@@ -2664,12 +2664,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2987,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5319468-0651-CB48-84DD-4DB55BDF580F}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3009,7 +3008,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3017,7 +3016,7 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3025,7 +3024,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3033,7 +3032,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3041,7 +3040,7 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3049,7 +3048,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3057,7 +3056,7 @@
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3065,7 +3064,7 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3073,7 +3072,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3081,7 +3080,7 @@
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3089,7 +3088,7 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3097,7 +3096,7 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3105,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -3113,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3121,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3129,7 +3128,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3137,7 +3136,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3145,7 +3144,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3153,7 +3152,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3161,7 +3160,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3169,7 +3168,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3177,7 +3176,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3185,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3193,7 +3192,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3201,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3209,7 +3208,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3217,7 +3216,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3225,7 +3224,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3233,7 +3232,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3241,7 +3240,7 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3249,7 +3248,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3257,7 +3256,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3265,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3273,7 +3272,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -3281,15 +3280,15 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B37" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3297,7 +3296,7 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3305,7 +3304,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3313,7 +3312,7 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3321,7 +3320,7 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3329,15 +3328,15 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3345,7 +3344,7 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3353,7 +3352,7 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3361,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3369,7 +3368,7 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3377,7 +3376,7 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3385,7 +3384,7 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3393,7 +3392,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3401,7 +3400,7 @@
         <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3409,15 +3408,15 @@
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3425,7 +3424,7 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3433,7 +3432,7 @@
         <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3441,7 +3440,7 @@
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -3449,7 +3448,7 @@
         <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -3457,7 +3456,7 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -3465,7 +3464,7 @@
         <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -3473,7 +3472,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -3513,55 +3512,55 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B8" t="s">
         <v>289</v>
@@ -3569,7 +3568,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s">
         <v>290</v>
@@ -3577,1138 +3576,1138 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>450</v>
       </c>
-      <c r="B10" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="B11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B31" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B42" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B44" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B45" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B46" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B48" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B49" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B50" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B51" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B52" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B53" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B54" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B55" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B56" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B57" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B58" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B60" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B61" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B62" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B63" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B64" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B65" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B66" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B67" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B68" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B69" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B70" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B71" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B72" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B73" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B74" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B75" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B76" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B77" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B80" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B81" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B84" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B85" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B86" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B87" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B88" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B89" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B90" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B91" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B92" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B93" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B94" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B95" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B96" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B97" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B99" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B100" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B101" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B102" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B103" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B104" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B105" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B106" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B107" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B108" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B109" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B110" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B111" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B112" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B113" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B115" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B116" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B117" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B118" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B119" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B120" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B121" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B122" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B123" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B124" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B125" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B126" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B127" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B128" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B129" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B130" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B131" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B132" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B133" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B134" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B135" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B136" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B137" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B138" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B139" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B140" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B141" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B142" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B143" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B144" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B145" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B146" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B147" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B148" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B149" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B150" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B151" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -4736,210 +4735,210 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B16" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B17" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B20" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B23" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B24" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>763</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>789</v>
+        <v>762</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B26" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -5374,170 +5373,170 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5710,8 +5709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271D06C8-E610-FE49-929B-38258FE943CA}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5726,10 +5725,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5769,7 +5768,7 @@
         <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5777,7 +5776,7 @@
         <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5809,7 +5808,7 @@
         <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5865,7 +5864,7 @@
         <v>230</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5897,7 +5896,7 @@
         <v>234</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6001,7 +6000,7 @@
         <v>247</v>
       </c>
       <c r="B36" t="s">
-        <v>317</v>
+        <v>852</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -6009,7 +6008,7 @@
         <v>248</v>
       </c>
       <c r="B37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -6017,7 +6016,7 @@
         <v>249</v>
       </c>
       <c r="B38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -6025,7 +6024,7 @@
         <v>250</v>
       </c>
       <c r="B39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -6033,7 +6032,7 @@
         <v>251</v>
       </c>
       <c r="B40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -6041,7 +6040,7 @@
         <v>252</v>
       </c>
       <c r="B41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -6049,7 +6048,7 @@
         <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -6057,7 +6056,7 @@
         <v>254</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -6065,7 +6064,7 @@
         <v>255</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -6073,7 +6072,7 @@
         <v>256</v>
       </c>
       <c r="B45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -6081,7 +6080,7 @@
         <v>257</v>
       </c>
       <c r="B46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -6089,7 +6088,7 @@
         <v>258</v>
       </c>
       <c r="B47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -6097,7 +6096,7 @@
         <v>259</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -6105,7 +6104,7 @@
         <v>260</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -6113,7 +6112,7 @@
         <v>261</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -6121,7 +6120,7 @@
         <v>262</v>
       </c>
       <c r="B51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -6129,7 +6128,7 @@
         <v>263</v>
       </c>
       <c r="B52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -6137,7 +6136,7 @@
         <v>264</v>
       </c>
       <c r="B53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -6145,7 +6144,7 @@
         <v>265</v>
       </c>
       <c r="B54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -6153,7 +6152,7 @@
         <v>266</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -6161,7 +6160,7 @@
         <v>267</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -6169,7 +6168,7 @@
         <v>268</v>
       </c>
       <c r="B57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -6177,7 +6176,7 @@
         <v>269</v>
       </c>
       <c r="B58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -6185,7 +6184,7 @@
         <v>270</v>
       </c>
       <c r="B59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -6193,7 +6192,7 @@
         <v>271</v>
       </c>
       <c r="B60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -6201,7 +6200,7 @@
         <v>272</v>
       </c>
       <c r="B61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -6209,7 +6208,7 @@
         <v>273</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -6217,7 +6216,7 @@
         <v>274</v>
       </c>
       <c r="B63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -6225,7 +6224,7 @@
         <v>275</v>
       </c>
       <c r="B64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -6233,7 +6232,7 @@
         <v>276</v>
       </c>
       <c r="B65" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -6241,7 +6240,7 @@
         <v>277</v>
       </c>
       <c r="B66" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -6249,7 +6248,7 @@
         <v>278</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -6257,7 +6256,7 @@
         <v>279</v>
       </c>
       <c r="B68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -6273,7 +6272,7 @@
         <v>281</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -6281,7 +6280,7 @@
         <v>282</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -6297,7 +6296,7 @@
         <v>284</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -6305,7 +6304,7 @@
         <v>285</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -6313,7 +6312,7 @@
         <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -6321,7 +6320,7 @@
         <v>287</v>
       </c>
       <c r="B76" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -6329,7 +6328,7 @@
         <v>288</v>
       </c>
       <c r="B77" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -6358,42 +6357,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -6401,7 +6400,7 @@
         <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -6409,12 +6408,12 @@
         <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
         <v>292</v>
@@ -6422,10 +6421,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -6433,7 +6432,7 @@
         <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -6441,7 +6440,7 @@
         <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -6449,7 +6448,7 @@
         <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -6457,7 +6456,7 @@
         <v>195</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6465,7 +6464,7 @@
         <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -6473,263 +6472,263 @@
         <v>197</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/varnames.xlsx
+++ b/data/raw/varnames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickgirdwood/r/traildata/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA2E643-FB92-9746-8118-B534B3DE5BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236611E2-3679-5142-BF9A-BAE641790087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35060" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{F7BF8602-2FA3-994F-9E79-F4296B4BA099}"/>
   </bookViews>
   <sheets>
     <sheet name="koos" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="855">
   <si>
     <t>How often is your knee painful?</t>
   </si>
@@ -2616,6 +2616,12 @@
   </si>
   <si>
     <t>training_stretch_freq</t>
+  </si>
+  <si>
+    <t>height_selfreport</t>
+  </si>
+  <si>
+    <t>weight_selfreport</t>
   </si>
 </sst>
 </file>
@@ -2688,9 +2694,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2728,7 +2734,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2834,7 +2840,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2976,7 +2982,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5736,7 +5742,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5744,7 +5750,7 @@
         <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>854</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
